--- a/Bases_de_Dados_(2022-2023)/Egypt Second Division_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Second Division_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3009" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3051" uniqueCount="378">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1509,7 +1509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK492"/>
+  <dimension ref="A1:BK499"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3371,7 +3371,7 @@
         <v>1.8</v>
       </c>
       <c r="AT10">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>1.4</v>
       </c>
       <c r="AT11">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -4708,7 +4708,7 @@
         <v>1.6</v>
       </c>
       <c r="AT17">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -5087,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT19">
         <v>2</v>
@@ -5472,7 +5472,7 @@
         <v>1.44</v>
       </c>
       <c r="AT21">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5660,7 +5660,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT22">
         <v>1.3</v>
@@ -5851,7 +5851,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT23">
         <v>0.7</v>
@@ -6042,7 +6042,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT24">
         <v>0.78</v>
@@ -6233,7 +6233,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT25">
         <v>1.55</v>
@@ -7955,7 +7955,7 @@
         <v>2.5</v>
       </c>
       <c r="AT34">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU34">
         <v>0</v>
@@ -9098,7 +9098,7 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT40">
         <v>1.3</v>
@@ -9671,10 +9671,10 @@
         <v>3</v>
       </c>
       <c r="AS43">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT43">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AU43">
         <v>0.86</v>
@@ -10056,7 +10056,7 @@
         <v>1.2</v>
       </c>
       <c r="AT45">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU45">
         <v>0</v>
@@ -10244,7 +10244,7 @@
         <v>0</v>
       </c>
       <c r="AS46">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT46">
         <v>1.1</v>
@@ -12348,7 +12348,7 @@
         <v>2.2</v>
       </c>
       <c r="AT57">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU57">
         <v>0</v>
@@ -12921,7 +12921,7 @@
         <v>0.6</v>
       </c>
       <c r="AT60">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU60">
         <v>0</v>
@@ -13300,7 +13300,7 @@
         <v>3</v>
       </c>
       <c r="AS62">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT62">
         <v>0.6</v>
@@ -13491,7 +13491,7 @@
         <v>1</v>
       </c>
       <c r="AS63">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT63">
         <v>1.73</v>
@@ -13873,7 +13873,7 @@
         <v>0</v>
       </c>
       <c r="AS65">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT65">
         <v>1</v>
@@ -14067,7 +14067,7 @@
         <v>1.44</v>
       </c>
       <c r="AT66">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU66">
         <v>0</v>
@@ -14446,10 +14446,10 @@
         <v>3</v>
       </c>
       <c r="AS68">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT68">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AU68">
         <v>2.02</v>
@@ -14637,7 +14637,7 @@
         <v>3</v>
       </c>
       <c r="AS69">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT69">
         <v>0.7</v>
@@ -14831,7 +14831,7 @@
         <v>1.6</v>
       </c>
       <c r="AT70">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU70">
         <v>1.1</v>
@@ -15019,7 +15019,7 @@
         <v>0</v>
       </c>
       <c r="AS71">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT71">
         <v>0.78</v>
@@ -16929,7 +16929,7 @@
         <v>1</v>
       </c>
       <c r="AS81">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT81">
         <v>1.3</v>
@@ -19606,7 +19606,7 @@
         <v>1.8</v>
       </c>
       <c r="AT95">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU95">
         <v>1.44</v>
@@ -19794,10 +19794,10 @@
         <v>1.5</v>
       </c>
       <c r="AS96">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT96">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU96">
         <v>2.02</v>
@@ -19985,7 +19985,7 @@
         <v>1.5</v>
       </c>
       <c r="AS97">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT97">
         <v>1</v>
@@ -20176,7 +20176,7 @@
         <v>0.5</v>
       </c>
       <c r="AS98">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT98">
         <v>1.55</v>
@@ -20370,7 +20370,7 @@
         <v>1.4</v>
       </c>
       <c r="AT99">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU99">
         <v>0</v>
@@ -21131,7 +21131,7 @@
         <v>0</v>
       </c>
       <c r="AS103">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT103">
         <v>0.78</v>
@@ -21516,7 +21516,7 @@
         <v>0.8</v>
       </c>
       <c r="AT105">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AU105">
         <v>1.13</v>
@@ -21707,7 +21707,7 @@
         <v>1.82</v>
       </c>
       <c r="AT106">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU106">
         <v>0.97</v>
@@ -21895,7 +21895,7 @@
         <v>1</v>
       </c>
       <c r="AS107">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT107">
         <v>1</v>
@@ -22089,7 +22089,7 @@
         <v>1.6</v>
       </c>
       <c r="AT108">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU108">
         <v>1.24</v>
@@ -23617,7 +23617,7 @@
         <v>1.44</v>
       </c>
       <c r="AT116">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU116">
         <v>0.59</v>
@@ -23996,7 +23996,7 @@
         <v>1.5</v>
       </c>
       <c r="AS118">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT118">
         <v>2</v>
@@ -30684,7 +30684,7 @@
         <v>1.45</v>
       </c>
       <c r="AT153">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU153">
         <v>1.99</v>
@@ -31066,7 +31066,7 @@
         <v>0.6</v>
       </c>
       <c r="AT155">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU155">
         <v>0</v>
@@ -31445,7 +31445,7 @@
         <v>2</v>
       </c>
       <c r="AS157">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT157">
         <v>1.55</v>
@@ -31636,10 +31636,10 @@
         <v>0.33</v>
       </c>
       <c r="AS158">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT158">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU158">
         <v>1.92</v>
@@ -31827,7 +31827,7 @@
         <v>1</v>
       </c>
       <c r="AS159">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT159">
         <v>1</v>
@@ -32021,7 +32021,7 @@
         <v>1.44</v>
       </c>
       <c r="AT160">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU160">
         <v>1.15</v>
@@ -32209,7 +32209,7 @@
         <v>2</v>
       </c>
       <c r="AS161">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT161">
         <v>2.27</v>
@@ -32400,7 +32400,7 @@
         <v>0</v>
       </c>
       <c r="AS162">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT162">
         <v>0.78</v>
@@ -32594,7 +32594,7 @@
         <v>0.8</v>
       </c>
       <c r="AT163">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU163">
         <v>1.13</v>
@@ -32782,7 +32782,7 @@
         <v>1.33</v>
       </c>
       <c r="AS164">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT164">
         <v>1</v>
@@ -33164,7 +33164,7 @@
         <v>1.33</v>
       </c>
       <c r="AS166">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT166">
         <v>0.6</v>
@@ -36987,7 +36987,7 @@
         <v>1.27</v>
       </c>
       <c r="AT186">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AU186">
         <v>1.02</v>
@@ -39470,7 +39470,7 @@
         <v>1.82</v>
       </c>
       <c r="AT199">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU199">
         <v>1.08</v>
@@ -40613,7 +40613,7 @@
         <v>1.25</v>
       </c>
       <c r="AS205">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT205">
         <v>1</v>
@@ -40804,7 +40804,7 @@
         <v>1.33</v>
       </c>
       <c r="AS206">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT206">
         <v>1.09</v>
@@ -40995,7 +40995,7 @@
         <v>1</v>
       </c>
       <c r="AS207">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT207">
         <v>0.91</v>
@@ -41380,7 +41380,7 @@
         <v>2</v>
       </c>
       <c r="AT209">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU209">
         <v>0</v>
@@ -41571,7 +41571,7 @@
         <v>0.8</v>
       </c>
       <c r="AT210">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU210">
         <v>1.19</v>
@@ -41759,7 +41759,7 @@
         <v>1.5</v>
       </c>
       <c r="AS211">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT211">
         <v>2.27</v>
@@ -41950,10 +41950,10 @@
         <v>1.25</v>
       </c>
       <c r="AS212">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT212">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU212">
         <v>1.7</v>
@@ -42141,7 +42141,7 @@
         <v>1.5</v>
       </c>
       <c r="AS213">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT213">
         <v>1</v>
@@ -45773,7 +45773,7 @@
         <v>1.09</v>
       </c>
       <c r="AT232">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU232">
         <v>0</v>
@@ -46152,7 +46152,7 @@
         <v>0.33</v>
       </c>
       <c r="AS234">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT234">
         <v>0.18</v>
@@ -46537,7 +46537,7 @@
         <v>0.91</v>
       </c>
       <c r="AT236">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AU236">
         <v>1.29</v>
@@ -48829,7 +48829,7 @@
         <v>1.45</v>
       </c>
       <c r="AT248">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU248">
         <v>2.1</v>
@@ -49590,7 +49590,7 @@
         <v>0.2</v>
       </c>
       <c r="AS252">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT252">
         <v>0.45</v>
@@ -49781,7 +49781,7 @@
         <v>1.8</v>
       </c>
       <c r="AS253">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT253">
         <v>2.09</v>
@@ -49972,7 +49972,7 @@
         <v>1.8</v>
       </c>
       <c r="AS254">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT254">
         <v>2.27</v>
@@ -50166,7 +50166,7 @@
         <v>0.8</v>
       </c>
       <c r="AT255">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU255">
         <v>1.31</v>
@@ -50357,7 +50357,7 @@
         <v>2</v>
       </c>
       <c r="AT256">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU256">
         <v>0</v>
@@ -50927,7 +50927,7 @@
         <v>1.2</v>
       </c>
       <c r="AS259">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT259">
         <v>1.55</v>
@@ -51118,7 +51118,7 @@
         <v>1.2</v>
       </c>
       <c r="AS260">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT260">
         <v>1</v>
@@ -53222,7 +53222,7 @@
         <v>0.9</v>
       </c>
       <c r="AT271">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU271">
         <v>1.04</v>
@@ -53795,7 +53795,7 @@
         <v>0.91</v>
       </c>
       <c r="AT274">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU274">
         <v>1.29</v>
@@ -54365,7 +54365,7 @@
         <v>1.8</v>
       </c>
       <c r="AS277">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT277">
         <v>1.3</v>
@@ -55132,7 +55132,7 @@
         <v>1.8</v>
       </c>
       <c r="AT281">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AU281">
         <v>1.06</v>
@@ -55320,7 +55320,7 @@
         <v>3</v>
       </c>
       <c r="AS282">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT282">
         <v>1.5</v>
@@ -56466,7 +56466,7 @@
         <v>1.17</v>
       </c>
       <c r="AS288">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT288">
         <v>0.91</v>
@@ -56851,7 +56851,7 @@
         <v>2</v>
       </c>
       <c r="AT290">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU290">
         <v>0</v>
@@ -59143,7 +59143,7 @@
         <v>2</v>
       </c>
       <c r="AT302">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU302">
         <v>0</v>
@@ -59713,7 +59713,7 @@
         <v>0.67</v>
       </c>
       <c r="AS305">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT305">
         <v>0.45</v>
@@ -59904,7 +59904,7 @@
         <v>0.2</v>
       </c>
       <c r="AS306">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT306">
         <v>0.18</v>
@@ -60095,7 +60095,7 @@
         <v>2</v>
       </c>
       <c r="AS307">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT307">
         <v>2.27</v>
@@ -60480,7 +60480,7 @@
         <v>1.36</v>
       </c>
       <c r="AT309">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU309">
         <v>1.38</v>
@@ -62390,7 +62390,7 @@
         <v>2.2</v>
       </c>
       <c r="AT319">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU319">
         <v>1.3</v>
@@ -63342,7 +63342,7 @@
         <v>1.43</v>
       </c>
       <c r="AS324">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT324">
         <v>1.55</v>
@@ -63533,7 +63533,7 @@
         <v>2.5</v>
       </c>
       <c r="AS325">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT325">
         <v>1.5</v>
@@ -63915,7 +63915,7 @@
         <v>0.67</v>
       </c>
       <c r="AS327">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT327">
         <v>0.7</v>
@@ -64109,7 +64109,7 @@
         <v>1.6</v>
       </c>
       <c r="AT328">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AU328">
         <v>1.13</v>
@@ -64491,7 +64491,7 @@
         <v>1.8</v>
       </c>
       <c r="AT330">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU330">
         <v>1.06</v>
@@ -65061,7 +65061,7 @@
         <v>0.67</v>
       </c>
       <c r="AS333">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT333">
         <v>0.5</v>
@@ -66971,7 +66971,7 @@
         <v>0.57</v>
       </c>
       <c r="AS343">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT343">
         <v>0.55</v>
@@ -67356,7 +67356,7 @@
         <v>1</v>
       </c>
       <c r="AT345">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU345">
         <v>1.25</v>
@@ -68499,7 +68499,7 @@
         <v>1.33</v>
       </c>
       <c r="AS351">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT351">
         <v>1.3</v>
@@ -68690,7 +68690,7 @@
         <v>0.57</v>
       </c>
       <c r="AS352">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT352">
         <v>0.45</v>
@@ -69266,7 +69266,7 @@
         <v>1.8</v>
       </c>
       <c r="AT355">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU355">
         <v>1.75</v>
@@ -69648,7 +69648,7 @@
         <v>1.36</v>
       </c>
       <c r="AT357">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU357">
         <v>1.52</v>
@@ -70027,7 +70027,7 @@
         <v>1.14</v>
       </c>
       <c r="AS359">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT359">
         <v>1.09</v>
@@ -72128,7 +72128,7 @@
         <v>1.29</v>
       </c>
       <c r="AS370">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT370">
         <v>1.3</v>
@@ -72892,7 +72892,7 @@
         <v>0.29</v>
       </c>
       <c r="AS374">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT374">
         <v>0.18</v>
@@ -73468,7 +73468,7 @@
         <v>0.91</v>
       </c>
       <c r="AT377">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU377">
         <v>1.05</v>
@@ -74423,7 +74423,7 @@
         <v>0.9</v>
       </c>
       <c r="AT382">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU382">
         <v>1.18</v>
@@ -77670,7 +77670,7 @@
         <v>1.2</v>
       </c>
       <c r="AT399">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU399">
         <v>0</v>
@@ -77858,7 +77858,7 @@
         <v>1.57</v>
       </c>
       <c r="AS400">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT400">
         <v>1.3</v>
@@ -78049,7 +78049,7 @@
         <v>0.57</v>
       </c>
       <c r="AS401">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT401">
         <v>0.7</v>
@@ -78622,10 +78622,10 @@
         <v>1</v>
       </c>
       <c r="AS404">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT404">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU404">
         <v>1.21</v>
@@ -79004,10 +79004,10 @@
         <v>2.29</v>
       </c>
       <c r="AS406">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT406">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU406">
         <v>0</v>
@@ -79580,7 +79580,7 @@
         <v>1.8</v>
       </c>
       <c r="AT409">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU409">
         <v>1.24</v>
@@ -82824,7 +82824,7 @@
         <v>1.88</v>
       </c>
       <c r="AS426">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT426">
         <v>1.5</v>
@@ -85692,7 +85692,7 @@
         <v>0.9</v>
       </c>
       <c r="AT441">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU441">
         <v>1.28</v>
@@ -86074,7 +86074,7 @@
         <v>2.18</v>
       </c>
       <c r="AT443">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU443">
         <v>1.36</v>
@@ -86453,7 +86453,7 @@
         <v>1.5</v>
       </c>
       <c r="AS445">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT445">
         <v>1.5</v>
@@ -86644,10 +86644,10 @@
         <v>1.25</v>
       </c>
       <c r="AS446">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT446">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU446">
         <v>0.84</v>
@@ -86835,7 +86835,7 @@
         <v>0.75</v>
       </c>
       <c r="AS447">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT447">
         <v>0.6</v>
@@ -87217,7 +87217,7 @@
         <v>0.88</v>
       </c>
       <c r="AS449">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT449">
         <v>0.78</v>
@@ -87790,10 +87790,10 @@
         <v>0.78</v>
       </c>
       <c r="AS452">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT452">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU452">
         <v>1.32</v>
@@ -87981,10 +87981,10 @@
         <v>2.25</v>
       </c>
       <c r="AS453">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT453">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AU453">
         <v>1.81</v>
@@ -95485,6 +95485,1343 @@
       </c>
       <c r="BK492">
         <v>11</v>
+      </c>
+    </row>
+    <row r="493" spans="1:63">
+      <c r="A493" s="1">
+        <v>492</v>
+      </c>
+      <c r="B493">
+        <v>4470447</v>
+      </c>
+      <c r="C493" t="s">
+        <v>63</v>
+      </c>
+      <c r="D493" t="s">
+        <v>64</v>
+      </c>
+      <c r="E493" s="2">
+        <v>44995.41666666666</v>
+      </c>
+      <c r="F493">
+        <v>21</v>
+      </c>
+      <c r="G493" t="s">
+        <v>82</v>
+      </c>
+      <c r="H493" t="s">
+        <v>81</v>
+      </c>
+      <c r="I493">
+        <v>0</v>
+      </c>
+      <c r="J493">
+        <v>0</v>
+      </c>
+      <c r="K493">
+        <v>0</v>
+      </c>
+      <c r="L493">
+        <v>3</v>
+      </c>
+      <c r="M493">
+        <v>0</v>
+      </c>
+      <c r="N493">
+        <v>3</v>
+      </c>
+      <c r="O493" t="s">
+        <v>150</v>
+      </c>
+      <c r="P493" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q493">
+        <v>-1</v>
+      </c>
+      <c r="R493">
+        <v>-1</v>
+      </c>
+      <c r="S493">
+        <v>-1</v>
+      </c>
+      <c r="T493">
+        <v>0</v>
+      </c>
+      <c r="U493">
+        <v>0</v>
+      </c>
+      <c r="V493">
+        <v>0</v>
+      </c>
+      <c r="W493">
+        <v>0</v>
+      </c>
+      <c r="X493">
+        <v>0</v>
+      </c>
+      <c r="Y493">
+        <v>0</v>
+      </c>
+      <c r="Z493">
+        <v>0</v>
+      </c>
+      <c r="AA493">
+        <v>0</v>
+      </c>
+      <c r="AB493">
+        <v>0</v>
+      </c>
+      <c r="AC493">
+        <v>2.5</v>
+      </c>
+      <c r="AD493">
+        <v>2.7</v>
+      </c>
+      <c r="AE493">
+        <v>2.88</v>
+      </c>
+      <c r="AF493">
+        <v>0</v>
+      </c>
+      <c r="AG493">
+        <v>0</v>
+      </c>
+      <c r="AH493">
+        <v>1.67</v>
+      </c>
+      <c r="AI493">
+        <v>2.15</v>
+      </c>
+      <c r="AJ493">
+        <v>3.1</v>
+      </c>
+      <c r="AK493">
+        <v>1.36</v>
+      </c>
+      <c r="AL493">
+        <v>0</v>
+      </c>
+      <c r="AM493">
+        <v>0</v>
+      </c>
+      <c r="AN493">
+        <v>0</v>
+      </c>
+      <c r="AO493">
+        <v>0</v>
+      </c>
+      <c r="AP493">
+        <v>0</v>
+      </c>
+      <c r="AQ493">
+        <v>1.56</v>
+      </c>
+      <c r="AR493">
+        <v>1.1</v>
+      </c>
+      <c r="AS493">
+        <v>1.7</v>
+      </c>
+      <c r="AT493">
+        <v>1</v>
+      </c>
+      <c r="AU493">
+        <v>0.84</v>
+      </c>
+      <c r="AV493">
+        <v>1.2</v>
+      </c>
+      <c r="AW493">
+        <v>2.04</v>
+      </c>
+      <c r="AX493">
+        <v>0</v>
+      </c>
+      <c r="AY493">
+        <v>0</v>
+      </c>
+      <c r="AZ493">
+        <v>0</v>
+      </c>
+      <c r="BA493">
+        <v>0</v>
+      </c>
+      <c r="BB493">
+        <v>0</v>
+      </c>
+      <c r="BC493">
+        <v>0</v>
+      </c>
+      <c r="BD493">
+        <v>0</v>
+      </c>
+      <c r="BE493">
+        <v>0</v>
+      </c>
+      <c r="BF493">
+        <v>-1</v>
+      </c>
+      <c r="BG493">
+        <v>-1</v>
+      </c>
+      <c r="BH493">
+        <v>-1</v>
+      </c>
+      <c r="BI493">
+        <v>-1</v>
+      </c>
+      <c r="BJ493">
+        <v>-1</v>
+      </c>
+      <c r="BK493">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:63">
+      <c r="A494" s="1">
+        <v>493</v>
+      </c>
+      <c r="B494">
+        <v>4470449</v>
+      </c>
+      <c r="C494" t="s">
+        <v>63</v>
+      </c>
+      <c r="D494" t="s">
+        <v>64</v>
+      </c>
+      <c r="E494" s="2">
+        <v>44995.41666666666</v>
+      </c>
+      <c r="F494">
+        <v>21</v>
+      </c>
+      <c r="G494" t="s">
+        <v>108</v>
+      </c>
+      <c r="H494" t="s">
+        <v>98</v>
+      </c>
+      <c r="I494">
+        <v>0</v>
+      </c>
+      <c r="J494">
+        <v>0</v>
+      </c>
+      <c r="K494">
+        <v>0</v>
+      </c>
+      <c r="L494">
+        <v>1</v>
+      </c>
+      <c r="M494">
+        <v>2</v>
+      </c>
+      <c r="N494">
+        <v>3</v>
+      </c>
+      <c r="O494" t="s">
+        <v>118</v>
+      </c>
+      <c r="P494" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q494">
+        <v>-1</v>
+      </c>
+      <c r="R494">
+        <v>-1</v>
+      </c>
+      <c r="S494">
+        <v>-1</v>
+      </c>
+      <c r="T494">
+        <v>0</v>
+      </c>
+      <c r="U494">
+        <v>0</v>
+      </c>
+      <c r="V494">
+        <v>0</v>
+      </c>
+      <c r="W494">
+        <v>0</v>
+      </c>
+      <c r="X494">
+        <v>0</v>
+      </c>
+      <c r="Y494">
+        <v>0</v>
+      </c>
+      <c r="Z494">
+        <v>0</v>
+      </c>
+      <c r="AA494">
+        <v>0</v>
+      </c>
+      <c r="AB494">
+        <v>0</v>
+      </c>
+      <c r="AC494">
+        <v>3.31</v>
+      </c>
+      <c r="AD494">
+        <v>3</v>
+      </c>
+      <c r="AE494">
+        <v>2</v>
+      </c>
+      <c r="AF494">
+        <v>0</v>
+      </c>
+      <c r="AG494">
+        <v>0</v>
+      </c>
+      <c r="AH494">
+        <v>1.53</v>
+      </c>
+      <c r="AI494">
+        <v>2.4</v>
+      </c>
+      <c r="AJ494">
+        <v>2.7</v>
+      </c>
+      <c r="AK494">
+        <v>1.45</v>
+      </c>
+      <c r="AL494">
+        <v>0</v>
+      </c>
+      <c r="AM494">
+        <v>0</v>
+      </c>
+      <c r="AN494">
+        <v>0</v>
+      </c>
+      <c r="AO494">
+        <v>0</v>
+      </c>
+      <c r="AP494">
+        <v>0</v>
+      </c>
+      <c r="AQ494">
+        <v>1.7</v>
+      </c>
+      <c r="AR494">
+        <v>2.11</v>
+      </c>
+      <c r="AS494">
+        <v>1.55</v>
+      </c>
+      <c r="AT494">
+        <v>2.2</v>
+      </c>
+      <c r="AU494">
+        <v>1.12</v>
+      </c>
+      <c r="AV494">
+        <v>1.16</v>
+      </c>
+      <c r="AW494">
+        <v>2.28</v>
+      </c>
+      <c r="AX494">
+        <v>0</v>
+      </c>
+      <c r="AY494">
+        <v>0</v>
+      </c>
+      <c r="AZ494">
+        <v>0</v>
+      </c>
+      <c r="BA494">
+        <v>0</v>
+      </c>
+      <c r="BB494">
+        <v>0</v>
+      </c>
+      <c r="BC494">
+        <v>0</v>
+      </c>
+      <c r="BD494">
+        <v>0</v>
+      </c>
+      <c r="BE494">
+        <v>0</v>
+      </c>
+      <c r="BF494">
+        <v>-1</v>
+      </c>
+      <c r="BG494">
+        <v>-1</v>
+      </c>
+      <c r="BH494">
+        <v>-1</v>
+      </c>
+      <c r="BI494">
+        <v>-1</v>
+      </c>
+      <c r="BJ494">
+        <v>-1</v>
+      </c>
+      <c r="BK494">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:63">
+      <c r="A495" s="1">
+        <v>494</v>
+      </c>
+      <c r="B495">
+        <v>4470430</v>
+      </c>
+      <c r="C495" t="s">
+        <v>63</v>
+      </c>
+      <c r="D495" t="s">
+        <v>64</v>
+      </c>
+      <c r="E495" s="2">
+        <v>44995.41666666666</v>
+      </c>
+      <c r="F495">
+        <v>21</v>
+      </c>
+      <c r="G495" t="s">
+        <v>86</v>
+      </c>
+      <c r="H495" t="s">
+        <v>107</v>
+      </c>
+      <c r="I495">
+        <v>0</v>
+      </c>
+      <c r="J495">
+        <v>0</v>
+      </c>
+      <c r="K495">
+        <v>0</v>
+      </c>
+      <c r="L495">
+        <v>0</v>
+      </c>
+      <c r="M495">
+        <v>4</v>
+      </c>
+      <c r="N495">
+        <v>4</v>
+      </c>
+      <c r="O495" t="s">
+        <v>115</v>
+      </c>
+      <c r="P495" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q495">
+        <v>7</v>
+      </c>
+      <c r="R495">
+        <v>9</v>
+      </c>
+      <c r="S495">
+        <v>16</v>
+      </c>
+      <c r="T495">
+        <v>0</v>
+      </c>
+      <c r="U495">
+        <v>0</v>
+      </c>
+      <c r="V495">
+        <v>0</v>
+      </c>
+      <c r="W495">
+        <v>0</v>
+      </c>
+      <c r="X495">
+        <v>0</v>
+      </c>
+      <c r="Y495">
+        <v>0</v>
+      </c>
+      <c r="Z495">
+        <v>0</v>
+      </c>
+      <c r="AA495">
+        <v>0</v>
+      </c>
+      <c r="AB495">
+        <v>0</v>
+      </c>
+      <c r="AC495">
+        <v>3.08</v>
+      </c>
+      <c r="AD495">
+        <v>2.9</v>
+      </c>
+      <c r="AE495">
+        <v>2.15</v>
+      </c>
+      <c r="AF495">
+        <v>0</v>
+      </c>
+      <c r="AG495">
+        <v>0</v>
+      </c>
+      <c r="AH495">
+        <v>1.6</v>
+      </c>
+      <c r="AI495">
+        <v>2.25</v>
+      </c>
+      <c r="AJ495">
+        <v>2.88</v>
+      </c>
+      <c r="AK495">
+        <v>1.4</v>
+      </c>
+      <c r="AL495">
+        <v>0</v>
+      </c>
+      <c r="AM495">
+        <v>0</v>
+      </c>
+      <c r="AN495">
+        <v>0</v>
+      </c>
+      <c r="AO495">
+        <v>0</v>
+      </c>
+      <c r="AP495">
+        <v>0</v>
+      </c>
+      <c r="AQ495">
+        <v>0.78</v>
+      </c>
+      <c r="AR495">
+        <v>0.7</v>
+      </c>
+      <c r="AS495">
+        <v>0.7</v>
+      </c>
+      <c r="AT495">
+        <v>0.91</v>
+      </c>
+      <c r="AU495">
+        <v>0.84</v>
+      </c>
+      <c r="AV495">
+        <v>0.8</v>
+      </c>
+      <c r="AW495">
+        <v>1.64</v>
+      </c>
+      <c r="AX495">
+        <v>0</v>
+      </c>
+      <c r="AY495">
+        <v>0</v>
+      </c>
+      <c r="AZ495">
+        <v>0</v>
+      </c>
+      <c r="BA495">
+        <v>0</v>
+      </c>
+      <c r="BB495">
+        <v>0</v>
+      </c>
+      <c r="BC495">
+        <v>0</v>
+      </c>
+      <c r="BD495">
+        <v>0</v>
+      </c>
+      <c r="BE495">
+        <v>0</v>
+      </c>
+      <c r="BF495">
+        <v>7</v>
+      </c>
+      <c r="BG495">
+        <v>5</v>
+      </c>
+      <c r="BH495">
+        <v>4</v>
+      </c>
+      <c r="BI495">
+        <v>6</v>
+      </c>
+      <c r="BJ495">
+        <v>11</v>
+      </c>
+      <c r="BK495">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="496" spans="1:63">
+      <c r="A496" s="1">
+        <v>495</v>
+      </c>
+      <c r="B496">
+        <v>4470434</v>
+      </c>
+      <c r="C496" t="s">
+        <v>63</v>
+      </c>
+      <c r="D496" t="s">
+        <v>64</v>
+      </c>
+      <c r="E496" s="2">
+        <v>44995.41666666666</v>
+      </c>
+      <c r="F496">
+        <v>21</v>
+      </c>
+      <c r="G496" t="s">
+        <v>87</v>
+      </c>
+      <c r="H496" t="s">
+        <v>83</v>
+      </c>
+      <c r="I496">
+        <v>0</v>
+      </c>
+      <c r="J496">
+        <v>0</v>
+      </c>
+      <c r="K496">
+        <v>0</v>
+      </c>
+      <c r="L496">
+        <v>2</v>
+      </c>
+      <c r="M496">
+        <v>4</v>
+      </c>
+      <c r="N496">
+        <v>6</v>
+      </c>
+      <c r="O496" t="s">
+        <v>113</v>
+      </c>
+      <c r="P496" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q496">
+        <v>-1</v>
+      </c>
+      <c r="R496">
+        <v>-1</v>
+      </c>
+      <c r="S496">
+        <v>-1</v>
+      </c>
+      <c r="T496">
+        <v>0</v>
+      </c>
+      <c r="U496">
+        <v>0</v>
+      </c>
+      <c r="V496">
+        <v>0</v>
+      </c>
+      <c r="W496">
+        <v>0</v>
+      </c>
+      <c r="X496">
+        <v>0</v>
+      </c>
+      <c r="Y496">
+        <v>0</v>
+      </c>
+      <c r="Z496">
+        <v>0</v>
+      </c>
+      <c r="AA496">
+        <v>0</v>
+      </c>
+      <c r="AB496">
+        <v>0</v>
+      </c>
+      <c r="AC496">
+        <v>1.6</v>
+      </c>
+      <c r="AD496">
+        <v>3.4</v>
+      </c>
+      <c r="AE496">
+        <v>4.63</v>
+      </c>
+      <c r="AF496">
+        <v>0</v>
+      </c>
+      <c r="AG496">
+        <v>0</v>
+      </c>
+      <c r="AH496">
+        <v>1.5</v>
+      </c>
+      <c r="AI496">
+        <v>2.5</v>
+      </c>
+      <c r="AJ496">
+        <v>2.6</v>
+      </c>
+      <c r="AK496">
+        <v>1.48</v>
+      </c>
+      <c r="AL496">
+        <v>0</v>
+      </c>
+      <c r="AM496">
+        <v>0</v>
+      </c>
+      <c r="AN496">
+        <v>0</v>
+      </c>
+      <c r="AO496">
+        <v>0</v>
+      </c>
+      <c r="AP496">
+        <v>0</v>
+      </c>
+      <c r="AQ496">
+        <v>2.11</v>
+      </c>
+      <c r="AR496">
+        <v>1.4</v>
+      </c>
+      <c r="AS496">
+        <v>1.9</v>
+      </c>
+      <c r="AT496">
+        <v>1.55</v>
+      </c>
+      <c r="AU496">
+        <v>1.3</v>
+      </c>
+      <c r="AV496">
+        <v>0.99</v>
+      </c>
+      <c r="AW496">
+        <v>2.29</v>
+      </c>
+      <c r="AX496">
+        <v>0</v>
+      </c>
+      <c r="AY496">
+        <v>0</v>
+      </c>
+      <c r="AZ496">
+        <v>0</v>
+      </c>
+      <c r="BA496">
+        <v>0</v>
+      </c>
+      <c r="BB496">
+        <v>0</v>
+      </c>
+      <c r="BC496">
+        <v>0</v>
+      </c>
+      <c r="BD496">
+        <v>0</v>
+      </c>
+      <c r="BE496">
+        <v>0</v>
+      </c>
+      <c r="BF496">
+        <v>-1</v>
+      </c>
+      <c r="BG496">
+        <v>-1</v>
+      </c>
+      <c r="BH496">
+        <v>-1</v>
+      </c>
+      <c r="BI496">
+        <v>-1</v>
+      </c>
+      <c r="BJ496">
+        <v>-1</v>
+      </c>
+      <c r="BK496">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:63">
+      <c r="A497" s="1">
+        <v>496</v>
+      </c>
+      <c r="B497">
+        <v>4470437</v>
+      </c>
+      <c r="C497" t="s">
+        <v>63</v>
+      </c>
+      <c r="D497" t="s">
+        <v>64</v>
+      </c>
+      <c r="E497" s="2">
+        <v>44995.41666666666</v>
+      </c>
+      <c r="F497">
+        <v>21</v>
+      </c>
+      <c r="G497" t="s">
+        <v>103</v>
+      </c>
+      <c r="H497" t="s">
+        <v>110</v>
+      </c>
+      <c r="I497">
+        <v>0</v>
+      </c>
+      <c r="J497">
+        <v>0</v>
+      </c>
+      <c r="K497">
+        <v>0</v>
+      </c>
+      <c r="L497">
+        <v>1</v>
+      </c>
+      <c r="M497">
+        <v>1</v>
+      </c>
+      <c r="N497">
+        <v>2</v>
+      </c>
+      <c r="O497" t="s">
+        <v>118</v>
+      </c>
+      <c r="P497" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q497">
+        <v>-1</v>
+      </c>
+      <c r="R497">
+        <v>-1</v>
+      </c>
+      <c r="S497">
+        <v>-1</v>
+      </c>
+      <c r="T497">
+        <v>0</v>
+      </c>
+      <c r="U497">
+        <v>0</v>
+      </c>
+      <c r="V497">
+        <v>0</v>
+      </c>
+      <c r="W497">
+        <v>0</v>
+      </c>
+      <c r="X497">
+        <v>0</v>
+      </c>
+      <c r="Y497">
+        <v>0</v>
+      </c>
+      <c r="Z497">
+        <v>0</v>
+      </c>
+      <c r="AA497">
+        <v>0</v>
+      </c>
+      <c r="AB497">
+        <v>0</v>
+      </c>
+      <c r="AC497">
+        <v>0</v>
+      </c>
+      <c r="AD497">
+        <v>0</v>
+      </c>
+      <c r="AE497">
+        <v>0</v>
+      </c>
+      <c r="AF497">
+        <v>0</v>
+      </c>
+      <c r="AG497">
+        <v>0</v>
+      </c>
+      <c r="AH497">
+        <v>0</v>
+      </c>
+      <c r="AI497">
+        <v>0</v>
+      </c>
+      <c r="AJ497">
+        <v>0</v>
+      </c>
+      <c r="AK497">
+        <v>0</v>
+      </c>
+      <c r="AL497">
+        <v>0</v>
+      </c>
+      <c r="AM497">
+        <v>0</v>
+      </c>
+      <c r="AN497">
+        <v>0</v>
+      </c>
+      <c r="AO497">
+        <v>0</v>
+      </c>
+      <c r="AP497">
+        <v>0</v>
+      </c>
+      <c r="AQ497">
+        <v>1.9</v>
+      </c>
+      <c r="AR497">
+        <v>2.11</v>
+      </c>
+      <c r="AS497">
+        <v>1.82</v>
+      </c>
+      <c r="AT497">
+        <v>2</v>
+      </c>
+      <c r="AU497">
+        <v>1.45</v>
+      </c>
+      <c r="AV497">
+        <v>0</v>
+      </c>
+      <c r="AW497">
+        <v>1.45</v>
+      </c>
+      <c r="AX497">
+        <v>0</v>
+      </c>
+      <c r="AY497">
+        <v>0</v>
+      </c>
+      <c r="AZ497">
+        <v>0</v>
+      </c>
+      <c r="BA497">
+        <v>0</v>
+      </c>
+      <c r="BB497">
+        <v>0</v>
+      </c>
+      <c r="BC497">
+        <v>0</v>
+      </c>
+      <c r="BD497">
+        <v>0</v>
+      </c>
+      <c r="BE497">
+        <v>0</v>
+      </c>
+      <c r="BF497">
+        <v>-1</v>
+      </c>
+      <c r="BG497">
+        <v>-1</v>
+      </c>
+      <c r="BH497">
+        <v>-1</v>
+      </c>
+      <c r="BI497">
+        <v>-1</v>
+      </c>
+      <c r="BJ497">
+        <v>-1</v>
+      </c>
+      <c r="BK497">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:63">
+      <c r="A498" s="1">
+        <v>497</v>
+      </c>
+      <c r="B498">
+        <v>4470443</v>
+      </c>
+      <c r="C498" t="s">
+        <v>63</v>
+      </c>
+      <c r="D498" t="s">
+        <v>64</v>
+      </c>
+      <c r="E498" s="2">
+        <v>44995.41666666666</v>
+      </c>
+      <c r="F498">
+        <v>21</v>
+      </c>
+      <c r="G498" t="s">
+        <v>85</v>
+      </c>
+      <c r="H498" t="s">
+        <v>112</v>
+      </c>
+      <c r="I498">
+        <v>0</v>
+      </c>
+      <c r="J498">
+        <v>0</v>
+      </c>
+      <c r="K498">
+        <v>0</v>
+      </c>
+      <c r="L498">
+        <v>0</v>
+      </c>
+      <c r="M498">
+        <v>0</v>
+      </c>
+      <c r="N498">
+        <v>0</v>
+      </c>
+      <c r="O498" t="s">
+        <v>115</v>
+      </c>
+      <c r="P498" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q498">
+        <v>-1</v>
+      </c>
+      <c r="R498">
+        <v>-1</v>
+      </c>
+      <c r="S498">
+        <v>-1</v>
+      </c>
+      <c r="T498">
+        <v>0</v>
+      </c>
+      <c r="U498">
+        <v>0</v>
+      </c>
+      <c r="V498">
+        <v>0</v>
+      </c>
+      <c r="W498">
+        <v>0</v>
+      </c>
+      <c r="X498">
+        <v>0</v>
+      </c>
+      <c r="Y498">
+        <v>0</v>
+      </c>
+      <c r="Z498">
+        <v>0</v>
+      </c>
+      <c r="AA498">
+        <v>0</v>
+      </c>
+      <c r="AB498">
+        <v>0</v>
+      </c>
+      <c r="AC498">
+        <v>0</v>
+      </c>
+      <c r="AD498">
+        <v>0</v>
+      </c>
+      <c r="AE498">
+        <v>0</v>
+      </c>
+      <c r="AF498">
+        <v>0</v>
+      </c>
+      <c r="AG498">
+        <v>0</v>
+      </c>
+      <c r="AH498">
+        <v>0</v>
+      </c>
+      <c r="AI498">
+        <v>0</v>
+      </c>
+      <c r="AJ498">
+        <v>0</v>
+      </c>
+      <c r="AK498">
+        <v>0</v>
+      </c>
+      <c r="AL498">
+        <v>0</v>
+      </c>
+      <c r="AM498">
+        <v>0</v>
+      </c>
+      <c r="AN498">
+        <v>0</v>
+      </c>
+      <c r="AO498">
+        <v>0</v>
+      </c>
+      <c r="AP498">
+        <v>0</v>
+      </c>
+      <c r="AQ498">
+        <v>1.8</v>
+      </c>
+      <c r="AR498">
+        <v>1</v>
+      </c>
+      <c r="AS498">
+        <v>1.73</v>
+      </c>
+      <c r="AT498">
+        <v>1</v>
+      </c>
+      <c r="AU498">
+        <v>1.62</v>
+      </c>
+      <c r="AV498">
+        <v>1.06</v>
+      </c>
+      <c r="AW498">
+        <v>2.68</v>
+      </c>
+      <c r="AX498">
+        <v>0</v>
+      </c>
+      <c r="AY498">
+        <v>0</v>
+      </c>
+      <c r="AZ498">
+        <v>0</v>
+      </c>
+      <c r="BA498">
+        <v>0</v>
+      </c>
+      <c r="BB498">
+        <v>0</v>
+      </c>
+      <c r="BC498">
+        <v>0</v>
+      </c>
+      <c r="BD498">
+        <v>0</v>
+      </c>
+      <c r="BE498">
+        <v>0</v>
+      </c>
+      <c r="BF498">
+        <v>-1</v>
+      </c>
+      <c r="BG498">
+        <v>-1</v>
+      </c>
+      <c r="BH498">
+        <v>-1</v>
+      </c>
+      <c r="BI498">
+        <v>-1</v>
+      </c>
+      <c r="BJ498">
+        <v>-1</v>
+      </c>
+      <c r="BK498">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:63">
+      <c r="A499" s="1">
+        <v>498</v>
+      </c>
+      <c r="B499">
+        <v>4470441</v>
+      </c>
+      <c r="C499" t="s">
+        <v>63</v>
+      </c>
+      <c r="D499" t="s">
+        <v>64</v>
+      </c>
+      <c r="E499" s="2">
+        <v>44995.41666666666</v>
+      </c>
+      <c r="F499">
+        <v>21</v>
+      </c>
+      <c r="G499" t="s">
+        <v>88</v>
+      </c>
+      <c r="H499" t="s">
+        <v>106</v>
+      </c>
+      <c r="I499">
+        <v>0</v>
+      </c>
+      <c r="J499">
+        <v>0</v>
+      </c>
+      <c r="K499">
+        <v>0</v>
+      </c>
+      <c r="L499">
+        <v>0</v>
+      </c>
+      <c r="M499">
+        <v>0</v>
+      </c>
+      <c r="N499">
+        <v>0</v>
+      </c>
+      <c r="O499" t="s">
+        <v>115</v>
+      </c>
+      <c r="P499" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q499">
+        <v>-1</v>
+      </c>
+      <c r="R499">
+        <v>-1</v>
+      </c>
+      <c r="S499">
+        <v>-1</v>
+      </c>
+      <c r="T499">
+        <v>0</v>
+      </c>
+      <c r="U499">
+        <v>0</v>
+      </c>
+      <c r="V499">
+        <v>0</v>
+      </c>
+      <c r="W499">
+        <v>0</v>
+      </c>
+      <c r="X499">
+        <v>0</v>
+      </c>
+      <c r="Y499">
+        <v>0</v>
+      </c>
+      <c r="Z499">
+        <v>0</v>
+      </c>
+      <c r="AA499">
+        <v>0</v>
+      </c>
+      <c r="AB499">
+        <v>0</v>
+      </c>
+      <c r="AC499">
+        <v>0</v>
+      </c>
+      <c r="AD499">
+        <v>0</v>
+      </c>
+      <c r="AE499">
+        <v>0</v>
+      </c>
+      <c r="AF499">
+        <v>0</v>
+      </c>
+      <c r="AG499">
+        <v>0</v>
+      </c>
+      <c r="AH499">
+        <v>0</v>
+      </c>
+      <c r="AI499">
+        <v>0</v>
+      </c>
+      <c r="AJ499">
+        <v>0</v>
+      </c>
+      <c r="AK499">
+        <v>0</v>
+      </c>
+      <c r="AL499">
+        <v>0</v>
+      </c>
+      <c r="AM499">
+        <v>0</v>
+      </c>
+      <c r="AN499">
+        <v>0</v>
+      </c>
+      <c r="AO499">
+        <v>0</v>
+      </c>
+      <c r="AP499">
+        <v>0</v>
+      </c>
+      <c r="AQ499">
+        <v>2.3</v>
+      </c>
+      <c r="AR499">
+        <v>1.44</v>
+      </c>
+      <c r="AS499">
+        <v>2.18</v>
+      </c>
+      <c r="AT499">
+        <v>1.4</v>
+      </c>
+      <c r="AU499">
+        <v>1.81</v>
+      </c>
+      <c r="AV499">
+        <v>1.25</v>
+      </c>
+      <c r="AW499">
+        <v>3.06</v>
+      </c>
+      <c r="AX499">
+        <v>0</v>
+      </c>
+      <c r="AY499">
+        <v>0</v>
+      </c>
+      <c r="AZ499">
+        <v>0</v>
+      </c>
+      <c r="BA499">
+        <v>0</v>
+      </c>
+      <c r="BB499">
+        <v>0</v>
+      </c>
+      <c r="BC499">
+        <v>0</v>
+      </c>
+      <c r="BD499">
+        <v>0</v>
+      </c>
+      <c r="BE499">
+        <v>0</v>
+      </c>
+      <c r="BF499">
+        <v>-1</v>
+      </c>
+      <c r="BG499">
+        <v>-1</v>
+      </c>
+      <c r="BH499">
+        <v>-1</v>
+      </c>
+      <c r="BI499">
+        <v>-1</v>
+      </c>
+      <c r="BJ499">
+        <v>-1</v>
+      </c>
+      <c r="BK499">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Second Division_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Second Division_20222023.xlsx
@@ -95519,7 +95519,7 @@
         <v>492</v>
       </c>
       <c r="B493">
-        <v>4470447</v>
+        <v>4470449</v>
       </c>
       <c r="C493" t="s">
         <v>63</v>
@@ -95534,97 +95534,97 @@
         <v>21</v>
       </c>
       <c r="G493" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="H493" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="I493">
+        <v>0</v>
+      </c>
+      <c r="J493">
+        <v>1</v>
+      </c>
+      <c r="K493">
+        <v>1</v>
+      </c>
+      <c r="L493">
+        <v>1</v>
+      </c>
+      <c r="M493">
         <v>2</v>
-      </c>
-      <c r="J493">
-        <v>0</v>
-      </c>
-      <c r="K493">
-        <v>2</v>
-      </c>
-      <c r="L493">
-        <v>3</v>
-      </c>
-      <c r="M493">
-        <v>0</v>
       </c>
       <c r="N493">
         <v>3</v>
       </c>
       <c r="O493" t="s">
-        <v>288</v>
+        <v>167</v>
       </c>
       <c r="P493" t="s">
-        <v>115</v>
+        <v>383</v>
       </c>
       <c r="Q493">
+        <v>5</v>
+      </c>
+      <c r="R493">
+        <v>3</v>
+      </c>
+      <c r="S493">
+        <v>8</v>
+      </c>
+      <c r="T493">
+        <v>0</v>
+      </c>
+      <c r="U493">
+        <v>0</v>
+      </c>
+      <c r="V493">
+        <v>0</v>
+      </c>
+      <c r="W493">
+        <v>0</v>
+      </c>
+      <c r="X493">
+        <v>0</v>
+      </c>
+      <c r="Y493">
+        <v>0</v>
+      </c>
+      <c r="Z493">
+        <v>0</v>
+      </c>
+      <c r="AA493">
+        <v>0</v>
+      </c>
+      <c r="AB493">
+        <v>0</v>
+      </c>
+      <c r="AC493">
+        <v>3.31</v>
+      </c>
+      <c r="AD493">
+        <v>3</v>
+      </c>
+      <c r="AE493">
         <v>2</v>
       </c>
-      <c r="R493">
-        <v>1</v>
-      </c>
-      <c r="S493">
-        <v>3</v>
-      </c>
-      <c r="T493">
-        <v>0</v>
-      </c>
-      <c r="U493">
-        <v>0</v>
-      </c>
-      <c r="V493">
-        <v>0</v>
-      </c>
-      <c r="W493">
-        <v>0</v>
-      </c>
-      <c r="X493">
-        <v>0</v>
-      </c>
-      <c r="Y493">
-        <v>0</v>
-      </c>
-      <c r="Z493">
-        <v>0</v>
-      </c>
-      <c r="AA493">
-        <v>0</v>
-      </c>
-      <c r="AB493">
-        <v>0</v>
-      </c>
-      <c r="AC493">
-        <v>2.5</v>
-      </c>
-      <c r="AD493">
+      <c r="AF493">
+        <v>0</v>
+      </c>
+      <c r="AG493">
+        <v>0</v>
+      </c>
+      <c r="AH493">
+        <v>1.53</v>
+      </c>
+      <c r="AI493">
+        <v>2.4</v>
+      </c>
+      <c r="AJ493">
         <v>2.7</v>
       </c>
-      <c r="AE493">
-        <v>2.88</v>
-      </c>
-      <c r="AF493">
-        <v>0</v>
-      </c>
-      <c r="AG493">
-        <v>0</v>
-      </c>
-      <c r="AH493">
-        <v>1.67</v>
-      </c>
-      <c r="AI493">
-        <v>2.15</v>
-      </c>
-      <c r="AJ493">
-        <v>3.1</v>
-      </c>
       <c r="AK493">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="AL493">
         <v>0</v>
@@ -95642,25 +95642,25 @@
         <v>0</v>
       </c>
       <c r="AQ493">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR493">
-        <v>1.1</v>
+        <v>2.11</v>
       </c>
       <c r="AS493">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT493">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="AU493">
-        <v>0.84</v>
+        <v>1.12</v>
       </c>
       <c r="AV493">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="AW493">
-        <v>2.04</v>
+        <v>2.28</v>
       </c>
       <c r="AX493">
         <v>0</v>
@@ -95687,22 +95687,22 @@
         <v>0</v>
       </c>
       <c r="BF493">
+        <v>4</v>
+      </c>
+      <c r="BG493">
+        <v>6</v>
+      </c>
+      <c r="BH493">
+        <v>2</v>
+      </c>
+      <c r="BI493">
+        <v>1</v>
+      </c>
+      <c r="BJ493">
+        <v>6</v>
+      </c>
+      <c r="BK493">
         <v>7</v>
-      </c>
-      <c r="BG493">
-        <v>2</v>
-      </c>
-      <c r="BH493">
-        <v>4</v>
-      </c>
-      <c r="BI493">
-        <v>6</v>
-      </c>
-      <c r="BJ493">
-        <v>11</v>
-      </c>
-      <c r="BK493">
-        <v>8</v>
       </c>
     </row>
     <row r="494" spans="1:63">
@@ -95710,7 +95710,7 @@
         <v>493</v>
       </c>
       <c r="B494">
-        <v>4470449</v>
+        <v>4470447</v>
       </c>
       <c r="C494" t="s">
         <v>63</v>
@@ -95725,175 +95725,175 @@
         <v>21</v>
       </c>
       <c r="G494" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="H494" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="I494">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J494">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K494">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L494">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M494">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N494">
         <v>3</v>
       </c>
       <c r="O494" t="s">
-        <v>167</v>
+        <v>288</v>
       </c>
       <c r="P494" t="s">
-        <v>383</v>
+        <v>115</v>
       </c>
       <c r="Q494">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R494">
+        <v>1</v>
+      </c>
+      <c r="S494">
         <v>3</v>
       </c>
-      <c r="S494">
+      <c r="T494">
+        <v>0</v>
+      </c>
+      <c r="U494">
+        <v>0</v>
+      </c>
+      <c r="V494">
+        <v>0</v>
+      </c>
+      <c r="W494">
+        <v>0</v>
+      </c>
+      <c r="X494">
+        <v>0</v>
+      </c>
+      <c r="Y494">
+        <v>0</v>
+      </c>
+      <c r="Z494">
+        <v>0</v>
+      </c>
+      <c r="AA494">
+        <v>0</v>
+      </c>
+      <c r="AB494">
+        <v>0</v>
+      </c>
+      <c r="AC494">
+        <v>2.5</v>
+      </c>
+      <c r="AD494">
+        <v>2.7</v>
+      </c>
+      <c r="AE494">
+        <v>2.88</v>
+      </c>
+      <c r="AF494">
+        <v>0</v>
+      </c>
+      <c r="AG494">
+        <v>0</v>
+      </c>
+      <c r="AH494">
+        <v>1.67</v>
+      </c>
+      <c r="AI494">
+        <v>2.15</v>
+      </c>
+      <c r="AJ494">
+        <v>3.1</v>
+      </c>
+      <c r="AK494">
+        <v>1.36</v>
+      </c>
+      <c r="AL494">
+        <v>0</v>
+      </c>
+      <c r="AM494">
+        <v>0</v>
+      </c>
+      <c r="AN494">
+        <v>0</v>
+      </c>
+      <c r="AO494">
+        <v>0</v>
+      </c>
+      <c r="AP494">
+        <v>0</v>
+      </c>
+      <c r="AQ494">
+        <v>1.56</v>
+      </c>
+      <c r="AR494">
+        <v>1.1</v>
+      </c>
+      <c r="AS494">
+        <v>1.7</v>
+      </c>
+      <c r="AT494">
+        <v>1</v>
+      </c>
+      <c r="AU494">
+        <v>0.84</v>
+      </c>
+      <c r="AV494">
+        <v>1.2</v>
+      </c>
+      <c r="AW494">
+        <v>2.04</v>
+      </c>
+      <c r="AX494">
+        <v>0</v>
+      </c>
+      <c r="AY494">
+        <v>0</v>
+      </c>
+      <c r="AZ494">
+        <v>0</v>
+      </c>
+      <c r="BA494">
+        <v>0</v>
+      </c>
+      <c r="BB494">
+        <v>0</v>
+      </c>
+      <c r="BC494">
+        <v>0</v>
+      </c>
+      <c r="BD494">
+        <v>0</v>
+      </c>
+      <c r="BE494">
+        <v>0</v>
+      </c>
+      <c r="BF494">
+        <v>7</v>
+      </c>
+      <c r="BG494">
+        <v>2</v>
+      </c>
+      <c r="BH494">
+        <v>4</v>
+      </c>
+      <c r="BI494">
+        <v>6</v>
+      </c>
+      <c r="BJ494">
+        <v>11</v>
+      </c>
+      <c r="BK494">
         <v>8</v>
-      </c>
-      <c r="T494">
-        <v>0</v>
-      </c>
-      <c r="U494">
-        <v>0</v>
-      </c>
-      <c r="V494">
-        <v>0</v>
-      </c>
-      <c r="W494">
-        <v>0</v>
-      </c>
-      <c r="X494">
-        <v>0</v>
-      </c>
-      <c r="Y494">
-        <v>0</v>
-      </c>
-      <c r="Z494">
-        <v>0</v>
-      </c>
-      <c r="AA494">
-        <v>0</v>
-      </c>
-      <c r="AB494">
-        <v>0</v>
-      </c>
-      <c r="AC494">
-        <v>3.31</v>
-      </c>
-      <c r="AD494">
-        <v>3</v>
-      </c>
-      <c r="AE494">
-        <v>2</v>
-      </c>
-      <c r="AF494">
-        <v>0</v>
-      </c>
-      <c r="AG494">
-        <v>0</v>
-      </c>
-      <c r="AH494">
-        <v>1.53</v>
-      </c>
-      <c r="AI494">
-        <v>2.4</v>
-      </c>
-      <c r="AJ494">
-        <v>2.7</v>
-      </c>
-      <c r="AK494">
-        <v>1.45</v>
-      </c>
-      <c r="AL494">
-        <v>0</v>
-      </c>
-      <c r="AM494">
-        <v>0</v>
-      </c>
-      <c r="AN494">
-        <v>0</v>
-      </c>
-      <c r="AO494">
-        <v>0</v>
-      </c>
-      <c r="AP494">
-        <v>0</v>
-      </c>
-      <c r="AQ494">
-        <v>1.7</v>
-      </c>
-      <c r="AR494">
-        <v>2.11</v>
-      </c>
-      <c r="AS494">
-        <v>1.55</v>
-      </c>
-      <c r="AT494">
-        <v>2.2</v>
-      </c>
-      <c r="AU494">
-        <v>1.12</v>
-      </c>
-      <c r="AV494">
-        <v>1.16</v>
-      </c>
-      <c r="AW494">
-        <v>2.28</v>
-      </c>
-      <c r="AX494">
-        <v>0</v>
-      </c>
-      <c r="AY494">
-        <v>0</v>
-      </c>
-      <c r="AZ494">
-        <v>0</v>
-      </c>
-      <c r="BA494">
-        <v>0</v>
-      </c>
-      <c r="BB494">
-        <v>0</v>
-      </c>
-      <c r="BC494">
-        <v>0</v>
-      </c>
-      <c r="BD494">
-        <v>0</v>
-      </c>
-      <c r="BE494">
-        <v>0</v>
-      </c>
-      <c r="BF494">
-        <v>4</v>
-      </c>
-      <c r="BG494">
-        <v>6</v>
-      </c>
-      <c r="BH494">
-        <v>2</v>
-      </c>
-      <c r="BI494">
-        <v>1</v>
-      </c>
-      <c r="BJ494">
-        <v>6</v>
-      </c>
-      <c r="BK494">
-        <v>7</v>
       </c>
     </row>
     <row r="495" spans="1:63">

--- a/Bases_de_Dados_(2022-2023)/Egypt Second Division_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Second Division_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3279" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3279" uniqueCount="400">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -916,6 +916,15 @@
     <t>['67']</t>
   </si>
   <si>
+    <t>['43', '62']</t>
+  </si>
+  <si>
+    <t>['14']</t>
+  </si>
+  <si>
+    <t>['83', '86']</t>
+  </si>
+  <si>
     <t>['19', '59']</t>
   </si>
   <si>
@@ -959,9 +968,6 @@
   </si>
   <si>
     <t>['37']</t>
-  </si>
-  <si>
-    <t>['14']</t>
   </si>
   <si>
     <t>['4', '24']</t>
@@ -1205,6 +1211,9 @@
   </si>
   <si>
     <t>['22', '55']</t>
+  </si>
+  <si>
+    <t>['22', '9009']</t>
   </si>
 </sst>
 </file>
@@ -2001,7 +2010,7 @@
         <v>114</v>
       </c>
       <c r="P3" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -4866,7 +4875,7 @@
         <v>119</v>
       </c>
       <c r="P18" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q18">
         <v>7</v>
@@ -5821,7 +5830,7 @@
         <v>121</v>
       </c>
       <c r="P23" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q23">
         <v>2</v>
@@ -6776,7 +6785,7 @@
         <v>115</v>
       </c>
       <c r="P28" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -7158,7 +7167,7 @@
         <v>126</v>
       </c>
       <c r="P30" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -8686,7 +8695,7 @@
         <v>128</v>
       </c>
       <c r="P38" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q38">
         <v>13</v>
@@ -8877,7 +8886,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -9450,7 +9459,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -12506,7 +12515,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q58">
         <v>1</v>
@@ -12697,7 +12706,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -13461,7 +13470,7 @@
         <v>115</v>
       </c>
       <c r="P63" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13843,7 +13852,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -16326,7 +16335,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -17281,7 +17290,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q83">
         <v>5</v>
@@ -17663,7 +17672,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -19191,7 +19200,7 @@
         <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="Q93">
         <v>4</v>
@@ -20719,7 +20728,7 @@
         <v>115</v>
       </c>
       <c r="P101" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -21292,7 +21301,7 @@
         <v>151</v>
       </c>
       <c r="P104" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -21865,7 +21874,7 @@
         <v>152</v>
       </c>
       <c r="P107" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -22056,7 +22065,7 @@
         <v>153</v>
       </c>
       <c r="P108" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q108">
         <v>12</v>
@@ -22629,7 +22638,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q111">
         <v>5</v>
@@ -23393,7 +23402,7 @@
         <v>131</v>
       </c>
       <c r="P115" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -23966,7 +23975,7 @@
         <v>156</v>
       </c>
       <c r="P118" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q118">
         <v>10</v>
@@ -24348,7 +24357,7 @@
         <v>143</v>
       </c>
       <c r="P120" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q120">
         <v>1</v>
@@ -26449,7 +26458,7 @@
         <v>161</v>
       </c>
       <c r="P131" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q131">
         <v>9</v>
@@ -26640,7 +26649,7 @@
         <v>162</v>
       </c>
       <c r="P132" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -27595,7 +27604,7 @@
         <v>143</v>
       </c>
       <c r="P137" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q137">
         <v>0</v>
@@ -28168,7 +28177,7 @@
         <v>115</v>
       </c>
       <c r="P140" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q140">
         <v>1</v>
@@ -28741,7 +28750,7 @@
         <v>115</v>
       </c>
       <c r="P143" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q143">
         <v>12</v>
@@ -29314,7 +29323,7 @@
         <v>115</v>
       </c>
       <c r="P146" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q146">
         <v>9</v>
@@ -29505,7 +29514,7 @@
         <v>166</v>
       </c>
       <c r="P147" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q147">
         <v>8</v>
@@ -29887,7 +29896,7 @@
         <v>120</v>
       </c>
       <c r="P149" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -30460,7 +30469,7 @@
         <v>168</v>
       </c>
       <c r="P152" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q152">
         <v>5</v>
@@ -31797,7 +31806,7 @@
         <v>115</v>
       </c>
       <c r="P159" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q159">
         <v>2</v>
@@ -32370,7 +32379,7 @@
         <v>173</v>
       </c>
       <c r="P162" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -35617,7 +35626,7 @@
         <v>179</v>
       </c>
       <c r="P179" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q179">
         <v>6</v>
@@ -37145,7 +37154,7 @@
         <v>182</v>
       </c>
       <c r="P187" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q187">
         <v>1</v>
@@ -37336,7 +37345,7 @@
         <v>183</v>
       </c>
       <c r="P188" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q188">
         <v>5</v>
@@ -37909,7 +37918,7 @@
         <v>184</v>
       </c>
       <c r="P191" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q191">
         <v>2</v>
@@ -38673,7 +38682,7 @@
         <v>187</v>
       </c>
       <c r="P195" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q195">
         <v>8</v>
@@ -39628,7 +39637,7 @@
         <v>190</v>
       </c>
       <c r="P200" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q200">
         <v>2</v>
@@ -41156,7 +41165,7 @@
         <v>162</v>
       </c>
       <c r="P208" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q208">
         <v>7</v>
@@ -41538,7 +41547,7 @@
         <v>194</v>
       </c>
       <c r="P210" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q210">
         <v>11</v>
@@ -41729,7 +41738,7 @@
         <v>195</v>
       </c>
       <c r="P211" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q211">
         <v>2</v>
@@ -42493,7 +42502,7 @@
         <v>198</v>
       </c>
       <c r="P215" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q215">
         <v>4</v>
@@ -42875,7 +42884,7 @@
         <v>199</v>
       </c>
       <c r="P217" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q217">
         <v>6</v>
@@ -43066,7 +43075,7 @@
         <v>115</v>
       </c>
       <c r="P218" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q218">
         <v>2</v>
@@ -45549,7 +45558,7 @@
         <v>203</v>
       </c>
       <c r="P231" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q231">
         <v>0</v>
@@ -46695,7 +46704,7 @@
         <v>205</v>
       </c>
       <c r="P237" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q237">
         <v>6</v>
@@ -47268,7 +47277,7 @@
         <v>115</v>
       </c>
       <c r="P240" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q240">
         <v>5</v>
@@ -47459,7 +47468,7 @@
         <v>115</v>
       </c>
       <c r="P241" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q241">
         <v>4</v>
@@ -47841,7 +47850,7 @@
         <v>207</v>
       </c>
       <c r="P243" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q243">
         <v>1</v>
@@ -48796,7 +48805,7 @@
         <v>186</v>
       </c>
       <c r="P248" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q248">
         <v>8</v>
@@ -49560,7 +49569,7 @@
         <v>115</v>
       </c>
       <c r="P252" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q252">
         <v>5</v>
@@ -50133,7 +50142,7 @@
         <v>197</v>
       </c>
       <c r="P255" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q255">
         <v>8</v>
@@ -51661,7 +51670,7 @@
         <v>186</v>
       </c>
       <c r="P263" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q263">
         <v>2</v>
@@ -51852,7 +51861,7 @@
         <v>114</v>
       </c>
       <c r="P264" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q264">
         <v>5</v>
@@ -53189,7 +53198,7 @@
         <v>115</v>
       </c>
       <c r="P271" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q271">
         <v>2</v>
@@ -54526,7 +54535,7 @@
         <v>215</v>
       </c>
       <c r="P278" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q278">
         <v>2</v>
@@ -57964,7 +57973,7 @@
         <v>221</v>
       </c>
       <c r="P296" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q296">
         <v>8</v>
@@ -58728,7 +58737,7 @@
         <v>223</v>
       </c>
       <c r="P300" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q300">
         <v>3</v>
@@ -59301,7 +59310,7 @@
         <v>141</v>
       </c>
       <c r="P303" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q303">
         <v>4</v>
@@ -60065,7 +60074,7 @@
         <v>115</v>
       </c>
       <c r="P307" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q307">
         <v>9</v>
@@ -60829,7 +60838,7 @@
         <v>227</v>
       </c>
       <c r="P311" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q311">
         <v>5</v>
@@ -61784,7 +61793,7 @@
         <v>229</v>
       </c>
       <c r="P316" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q316">
         <v>4</v>
@@ -62166,7 +62175,7 @@
         <v>115</v>
       </c>
       <c r="P318" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q318">
         <v>4</v>
@@ -62548,7 +62557,7 @@
         <v>230</v>
       </c>
       <c r="P320" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q320">
         <v>9</v>
@@ -63121,7 +63130,7 @@
         <v>231</v>
       </c>
       <c r="P323" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q323">
         <v>4</v>
@@ -66559,7 +66568,7 @@
         <v>145</v>
       </c>
       <c r="P341" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q341">
         <v>6</v>
@@ -68469,7 +68478,7 @@
         <v>243</v>
       </c>
       <c r="P351" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q351">
         <v>2</v>
@@ -68851,7 +68860,7 @@
         <v>245</v>
       </c>
       <c r="P353" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q353">
         <v>3</v>
@@ -69806,7 +69815,7 @@
         <v>246</v>
       </c>
       <c r="P358" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q358">
         <v>4</v>
@@ -72289,7 +72298,7 @@
         <v>115</v>
       </c>
       <c r="P371" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q371">
         <v>4</v>
@@ -72480,7 +72489,7 @@
         <v>115</v>
       </c>
       <c r="P372" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q372">
         <v>5</v>
@@ -72671,7 +72680,7 @@
         <v>249</v>
       </c>
       <c r="P373" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q373">
         <v>3</v>
@@ -73053,7 +73062,7 @@
         <v>251</v>
       </c>
       <c r="P375" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q375">
         <v>3</v>
@@ -75918,7 +75927,7 @@
         <v>115</v>
       </c>
       <c r="P390" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q390">
         <v>14</v>
@@ -76109,7 +76118,7 @@
         <v>257</v>
       </c>
       <c r="P391" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q391">
         <v>2</v>
@@ -79356,7 +79365,7 @@
         <v>260</v>
       </c>
       <c r="P408" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q408">
         <v>3</v>
@@ -80120,7 +80129,7 @@
         <v>262</v>
       </c>
       <c r="P412" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q412">
         <v>5</v>
@@ -80693,7 +80702,7 @@
         <v>115</v>
       </c>
       <c r="P415" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q415">
         <v>2</v>
@@ -81266,7 +81275,7 @@
         <v>263</v>
       </c>
       <c r="P418" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q418">
         <v>11</v>
@@ -82030,7 +82039,7 @@
         <v>115</v>
       </c>
       <c r="P422" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q422">
         <v>3</v>
@@ -82221,7 +82230,7 @@
         <v>265</v>
       </c>
       <c r="P423" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q423">
         <v>4</v>
@@ -82985,7 +82994,7 @@
         <v>115</v>
       </c>
       <c r="P427" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q427">
         <v>2</v>
@@ -83367,7 +83376,7 @@
         <v>268</v>
       </c>
       <c r="P429" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q429">
         <v>2</v>
@@ -83558,7 +83567,7 @@
         <v>115</v>
       </c>
       <c r="P430" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q430">
         <v>2</v>
@@ -85086,7 +85095,7 @@
         <v>271</v>
       </c>
       <c r="P438" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q438">
         <v>12</v>
@@ -85850,7 +85859,7 @@
         <v>273</v>
       </c>
       <c r="P442" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q442">
         <v>6</v>
@@ -86041,7 +86050,7 @@
         <v>274</v>
       </c>
       <c r="P443" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q443">
         <v>3</v>
@@ -88333,7 +88342,7 @@
         <v>278</v>
       </c>
       <c r="P455" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q455">
         <v>4</v>
@@ -90625,7 +90634,7 @@
         <v>261</v>
       </c>
       <c r="P467" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q467">
         <v>7</v>
@@ -91389,7 +91398,7 @@
         <v>282</v>
       </c>
       <c r="P471" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q471">
         <v>3</v>
@@ -92726,7 +92735,7 @@
         <v>283</v>
       </c>
       <c r="P478" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q478">
         <v>4</v>
@@ -94254,7 +94263,7 @@
         <v>115</v>
       </c>
       <c r="P486" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q486">
         <v>7</v>
@@ -94827,7 +94836,7 @@
         <v>285</v>
       </c>
       <c r="P489" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q489">
         <v>4</v>
@@ -95209,7 +95218,7 @@
         <v>287</v>
       </c>
       <c r="P491" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q491">
         <v>2</v>
@@ -95400,7 +95409,7 @@
         <v>115</v>
       </c>
       <c r="P492" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q492">
         <v>1</v>
@@ -95591,7 +95600,7 @@
         <v>167</v>
       </c>
       <c r="P493" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q493">
         <v>5</v>
@@ -95973,7 +95982,7 @@
         <v>115</v>
       </c>
       <c r="P495" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q495">
         <v>7</v>
@@ -96164,7 +96173,7 @@
         <v>289</v>
       </c>
       <c r="P496" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q496">
         <v>10</v>
@@ -97119,7 +97128,7 @@
         <v>290</v>
       </c>
       <c r="P501" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q501">
         <v>7</v>
@@ -99029,7 +99038,7 @@
         <v>294</v>
       </c>
       <c r="P511" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q511">
         <v>8</v>
@@ -99220,7 +99229,7 @@
         <v>234</v>
       </c>
       <c r="P512" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q512">
         <v>1</v>
@@ -99602,7 +99611,7 @@
         <v>115</v>
       </c>
       <c r="P514" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q514">
         <v>8</v>
@@ -100557,7 +100566,7 @@
         <v>296</v>
       </c>
       <c r="P519" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q519">
         <v>13</v>
@@ -101703,7 +101712,7 @@
         <v>257</v>
       </c>
       <c r="P525" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q525">
         <v>1</v>
@@ -102467,7 +102476,7 @@
         <v>298</v>
       </c>
       <c r="P529" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q529">
         <v>6</v>
@@ -103210,13 +103219,13 @@
         <v>109</v>
       </c>
       <c r="I533">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J533">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K533">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L533">
         <v>2</v>
@@ -103228,19 +103237,19 @@
         <v>3</v>
       </c>
       <c r="O533" t="s">
-        <v>113</v>
+        <v>300</v>
       </c>
       <c r="P533" t="s">
-        <v>118</v>
+        <v>234</v>
       </c>
       <c r="Q533">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="R533">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S533">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T533">
         <v>0</v>
@@ -103357,22 +103366,22 @@
         <v>0</v>
       </c>
       <c r="BF533">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BG533">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH533">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BI533">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BJ533">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="BK533">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="534" spans="1:63">
@@ -103419,7 +103428,7 @@
         <v>1</v>
       </c>
       <c r="O534" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P534" t="s">
         <v>115</v>
@@ -103592,13 +103601,13 @@
         <v>99</v>
       </c>
       <c r="I535">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J535">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K535">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L535">
         <v>1</v>
@@ -103610,19 +103619,19 @@
         <v>3</v>
       </c>
       <c r="O535" t="s">
-        <v>118</v>
+        <v>301</v>
       </c>
       <c r="P535" t="s">
-        <v>113</v>
+        <v>399</v>
       </c>
       <c r="Q535">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="R535">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S535">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="T535">
         <v>0</v>
@@ -103739,22 +103748,22 @@
         <v>0</v>
       </c>
       <c r="BF535">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BG535">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BH535">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BI535">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BJ535">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="BK535">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="536" spans="1:63">
@@ -103801,19 +103810,19 @@
         <v>3</v>
       </c>
       <c r="O536" t="s">
-        <v>113</v>
+        <v>302</v>
       </c>
       <c r="P536" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="Q536">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R536">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S536">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T536">
         <v>0</v>
@@ -103930,22 +103939,22 @@
         <v>0</v>
       </c>
       <c r="BF536">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BG536">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH536">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BI536">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BJ536">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BK536">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="537" spans="1:63">
@@ -103998,13 +104007,13 @@
         <v>115</v>
       </c>
       <c r="Q537">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="R537">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="S537">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T537">
         <v>0</v>
@@ -104121,22 +104130,22 @@
         <v>0</v>
       </c>
       <c r="BF537">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BG537">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BH537">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BI537">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BJ537">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BK537">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
